--- a/notes voteWeCan.xlsx
+++ b/notes voteWeCan.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEK-4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoteYouCan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="6450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
-    <sheet name="Components" sheetId="2" r:id="rId2"/>
-    <sheet name="Testing" sheetId="3" r:id="rId3"/>
+    <sheet name="collections" sheetId="3" r:id="rId2"/>
+    <sheet name="UI" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,122 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Objective</t>
   </si>
   <si>
-    <t>Presentational Components</t>
-  </si>
-  <si>
     <t>App</t>
   </si>
   <si>
-    <t>Root Component , renders everything</t>
-  </si>
-  <si>
-    <t>Sim Speed Btns Div</t>
-  </si>
-  <si>
-    <t>Board Square</t>
-  </si>
-  <si>
-    <t>Board</t>
-  </si>
-  <si>
-    <t>Generations Counter</t>
-  </si>
-  <si>
-    <t>counter_num</t>
-  </si>
-  <si>
-    <t>length, width, board squares array</t>
-  </si>
-  <si>
-    <t>top 3 btn wrapper</t>
-  </si>
-  <si>
-    <t>run pause, clear btns</t>
-  </si>
-  <si>
-    <t>Header locked</t>
-  </si>
-  <si>
-    <t>no props</t>
-  </si>
-  <si>
-    <t>State: 1,2 or 3 , onClick</t>
-  </si>
-  <si>
-    <t>Footer static</t>
-  </si>
-  <si>
-    <t>3 btn, onClicks</t>
-  </si>
-  <si>
-    <t>Container Components</t>
-  </si>
-  <si>
-    <t>Current Board</t>
-  </si>
-  <si>
-    <t>updates and renders the new board</t>
-  </si>
-  <si>
-    <t>gets the current board size and renders a btn</t>
-  </si>
-  <si>
-    <t>Other Components</t>
-  </si>
-  <si>
-    <t>Props and Description</t>
-  </si>
-  <si>
-    <t>FilterBoardSizeBtns</t>
-  </si>
-  <si>
-    <t>Board Size Btns</t>
-  </si>
-  <si>
-    <t>In Store</t>
-  </si>
-  <si>
-    <t>IsRunning</t>
-  </si>
-  <si>
-    <t>IsPaused</t>
-  </si>
-  <si>
-    <t>Generations</t>
-  </si>
-  <si>
-    <t>Redux Methods</t>
-  </si>
-  <si>
-    <t>RUN_BOARD</t>
-  </si>
-  <si>
-    <t>PAUSE_BOARD</t>
-  </si>
-  <si>
-    <t>CLEAR_BOARD</t>
-  </si>
-  <si>
-    <t>CHANGE_SIM_SPEED</t>
-  </si>
-  <si>
-    <t>CHANGE_BOARD_SIZE</t>
-  </si>
-  <si>
-    <t>boardSize</t>
-  </si>
-  <si>
-    <t>simulationSpeed</t>
-  </si>
-  <si>
-    <t>board</t>
-  </si>
-  <si>
     <t>Connect with twitter</t>
   </si>
   <si>
@@ -251,6 +144,57 @@
   </si>
   <si>
     <t>Logout</t>
+  </si>
+  <si>
+    <t>polls</t>
+  </si>
+  <si>
+    <t>poll id</t>
+  </si>
+  <si>
+    <t>poll question</t>
+  </si>
+  <si>
+    <t>poll options</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>opt-1, count-1, opt-2, count-2, opt-3, count-3 …</t>
+  </si>
+  <si>
+    <t>null or user</t>
+  </si>
+  <si>
+    <t>layouts</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>containers</t>
+  </si>
+  <si>
+    <t>components</t>
+  </si>
+  <si>
+    <t>AppContainer</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>ListPolls</t>
+  </si>
+  <si>
+    <t>VotePoll</t>
+  </si>
+  <si>
+    <t>ViewPollResults</t>
   </si>
 </sst>
 </file>
@@ -663,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -689,158 +633,158 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
         <v>3</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
         <v>4</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -854,14 +798,14 @@
         <v>5</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,14 +813,14 @@
       <c r="B23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,21 +834,21 @@
         <v>5</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,17 +911,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" customWidth="1"/>
@@ -986,161 +980,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1148,7 +1043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
